--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/Documents/GitHub/MLSAttendance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1343D3C2-DE24-DE48-8532-B7812F5D1AE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E9909A-DA4D-3C46-ABE8-BA1B51EBC26C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{C450A5CF-5FF7-874D-8BB0-206FDD644375}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Year</t>
   </si>
@@ -39,9 +39,6 @@
     <t>CHI</t>
   </si>
   <si>
-    <t>CHV</t>
-  </si>
-  <si>
     <t>COL</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>LAFC</t>
   </si>
   <si>
-    <t>MIA</t>
-  </si>
-  <si>
     <t>MIN</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
   </si>
   <si>
     <t>KC</t>
-  </si>
-  <si>
-    <t>TB</t>
   </si>
   <si>
     <t>TOR</t>
@@ -480,13 +471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900C2965-61F6-6848-8FBA-3D0B26EA8954}">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,64 +550,55 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1998</v>
       </c>
       <c r="B2" s="3">
         <v>17886</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
+      <c r="C2" s="4">
+        <v>14812</v>
       </c>
       <c r="D2" s="4">
-        <v>14812</v>
+        <v>12274</v>
       </c>
       <c r="E2" s="4">
-        <v>12274</v>
+        <v>10947</v>
       </c>
       <c r="F2" s="4">
-        <v>10947</v>
-      </c>
-      <c r="G2" s="4">
         <v>16007</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
         <v>21784</v>
       </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
       <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="4">
-        <v>10284</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>19187</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="4">
-        <v>19187</v>
+        <v>16519</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
-      <c r="P2" s="4">
-        <v>16519</v>
+      <c r="P2" s="2">
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -624,82 +606,73 @@
       <c r="R2" s="2">
         <v>0</v>
       </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4">
+      <c r="S2" s="4">
         <v>13653</v>
       </c>
-      <c r="V2" s="4">
+      <c r="T2" s="4">
         <v>8072</v>
       </c>
-      <c r="W2" s="4">
-        <v>10312</v>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
       </c>
       <c r="X2" s="2">
         <v>0</v>
       </c>
-      <c r="Y2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1999</v>
       </c>
       <c r="B3" s="4">
         <v>16016</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="4">
         <v>14029</v>
       </c>
-      <c r="E3" s="3">
+      <c r="D3" s="3">
         <v>17696</v>
       </c>
+      <c r="E3" s="4">
+        <v>12211</v>
+      </c>
       <c r="F3" s="4">
-        <v>12211</v>
-      </c>
-      <c r="G3" s="4">
         <v>17419</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
         <v>17632</v>
       </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
       <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="4">
-        <v>8689</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>16795</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="4">
-        <v>16795</v>
+        <v>14706</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="4">
-        <v>14706</v>
+      <c r="P3" s="2">
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -707,82 +680,73 @@
       <c r="R3" s="2">
         <v>0</v>
       </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
+      <c r="S3" s="4">
         <v>14959</v>
       </c>
-      <c r="V3" s="4">
+      <c r="T3" s="4">
         <v>8183</v>
       </c>
-      <c r="W3" s="4">
-        <v>13106</v>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
       </c>
       <c r="X3" s="2">
         <v>0</v>
       </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2000</v>
       </c>
       <c r="B4" s="4">
         <v>13387</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
+      <c r="C4" s="4">
+        <v>12580</v>
       </c>
       <c r="D4" s="4">
-        <v>12580</v>
+        <v>15451</v>
       </c>
       <c r="E4" s="4">
-        <v>15451</v>
+        <v>13102</v>
       </c>
       <c r="F4" s="4">
-        <v>13102</v>
-      </c>
-      <c r="G4" s="4">
         <v>18580</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>20400</v>
       </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="4">
-        <v>7460</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>15463</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <v>15463</v>
+        <v>17621</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
-      <c r="P4" s="4">
-        <v>17621</v>
+      <c r="P4" s="2">
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -790,82 +754,73 @@
       <c r="R4" s="2">
         <v>0</v>
       </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
+      <c r="S4" s="4">
         <v>12460</v>
       </c>
-      <c r="V4" s="4">
+      <c r="T4" s="4">
         <v>9112</v>
       </c>
-      <c r="W4" s="4">
-        <v>9452</v>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
       </c>
       <c r="X4" s="2">
         <v>0</v>
       </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2001</v>
       </c>
       <c r="B5" s="4">
         <v>16388</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
+      <c r="C5" s="4">
+        <v>16481</v>
       </c>
       <c r="D5" s="4">
-        <v>16481</v>
+        <v>17511</v>
       </c>
       <c r="E5" s="4">
-        <v>17511</v>
+        <v>12574</v>
       </c>
       <c r="F5" s="4">
-        <v>12574</v>
-      </c>
-      <c r="G5" s="4">
         <v>21518</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>17387</v>
       </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="4">
-        <v>11177</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>15654</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
-      <c r="N5" s="4">
-        <v>15654</v>
+      <c r="N5" s="3">
+        <v>20806</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
-      <c r="P5" s="3">
-        <v>20806</v>
+      <c r="P5" s="2">
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -873,82 +828,73 @@
       <c r="R5" s="2">
         <v>0</v>
       </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
+      <c r="S5" s="4">
         <v>9635</v>
       </c>
-      <c r="V5" s="4">
+      <c r="T5" s="4">
         <v>10954</v>
       </c>
-      <c r="W5" s="4">
-        <v>10479</v>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
       </c>
       <c r="X5" s="2">
         <v>0</v>
       </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2002</v>
       </c>
       <c r="B6" s="4">
         <v>12922</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3">
         <v>20690</v>
       </c>
+      <c r="D6" s="4">
+        <v>17429</v>
+      </c>
       <c r="E6" s="4">
-        <v>17429</v>
+        <v>13122</v>
       </c>
       <c r="F6" s="4">
-        <v>13122</v>
-      </c>
-      <c r="G6" s="4">
         <v>16519</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>19047</v>
       </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="L6" s="2">
-        <v>0</v>
+      <c r="L6" s="4">
+        <v>16927</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="4">
-        <v>16927</v>
+        <v>18155</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" s="4">
-        <v>18155</v>
+      <c r="P6" s="2">
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -956,82 +902,73 @@
       <c r="R6" s="2">
         <v>0</v>
       </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
+      <c r="S6" s="4">
         <v>11150</v>
       </c>
-      <c r="V6" s="4">
+      <c r="T6" s="4">
         <v>12255</v>
       </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
       <c r="W6" s="2">
         <v>0</v>
       </c>
       <c r="X6" s="2">
         <v>0</v>
       </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2003</v>
       </c>
       <c r="B7" s="4">
         <v>14005</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
+      <c r="C7" s="4">
+        <v>16772</v>
       </c>
       <c r="D7" s="4">
-        <v>16772</v>
+        <v>16250</v>
       </c>
       <c r="E7" s="4">
-        <v>16250</v>
+        <v>7906</v>
       </c>
       <c r="F7" s="4">
-        <v>7906</v>
-      </c>
-      <c r="G7" s="4">
         <v>15565</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <v>21983</v>
       </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="2">
-        <v>0</v>
+      <c r="L7" s="4">
+        <v>14641</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <v>14641</v>
+        <v>15822</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
-      <c r="P7" s="4">
-        <v>15822</v>
+      <c r="P7" s="2">
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1039,82 +976,73 @@
       <c r="R7" s="2">
         <v>0</v>
       </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4">
+      <c r="S7" s="4">
         <v>10466</v>
       </c>
-      <c r="V7" s="4">
+      <c r="T7" s="4">
         <v>15573</v>
       </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
       <c r="W7" s="2">
         <v>0</v>
       </c>
       <c r="X7" s="2">
         <v>0</v>
       </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2004</v>
       </c>
       <c r="B8" s="4">
         <v>17153</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
+      <c r="C8" s="4">
+        <v>14195</v>
       </c>
       <c r="D8" s="4">
-        <v>14195</v>
+        <v>16872</v>
       </c>
       <c r="E8" s="4">
-        <v>16872</v>
+        <v>9008</v>
       </c>
       <c r="F8" s="4">
-        <v>9008</v>
-      </c>
-      <c r="G8" s="4">
         <v>17232</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>23809</v>
       </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="L8" s="2">
-        <v>0</v>
+      <c r="L8" s="4">
+        <v>12226</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <v>12226</v>
+        <v>17195</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="4">
-        <v>17195</v>
+      <c r="P8" s="2">
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -1122,35 +1050,26 @@
       <c r="R8" s="2">
         <v>0</v>
       </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4">
+      <c r="S8" s="4">
         <v>13001</v>
       </c>
-      <c r="V8" s="4">
+      <c r="T8" s="4">
         <v>14816</v>
       </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
       <c r="W8" s="2">
         <v>0</v>
       </c>
       <c r="X8" s="2">
         <v>0</v>
       </c>
-      <c r="Y8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2005</v>
       </c>
@@ -1158,82 +1077,73 @@
         <v>17238</v>
       </c>
       <c r="C9" s="4">
-        <v>17080</v>
+        <v>16638</v>
       </c>
       <c r="D9" s="4">
-        <v>16638</v>
+        <v>12916</v>
       </c>
       <c r="E9" s="4">
-        <v>12916</v>
+        <v>11189</v>
       </c>
       <c r="F9" s="4">
-        <v>11189</v>
-      </c>
-      <c r="G9" s="4">
         <v>16664</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>24204</v>
       </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="2">
-        <v>0</v>
+      <c r="L9" s="4">
+        <v>12525</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="4">
-        <v>12525</v>
+        <v>15077</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" s="4">
-        <v>15077</v>
+      <c r="P9" s="2">
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
       </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
+      <c r="R9" s="4">
+        <v>18037</v>
+      </c>
+      <c r="S9" s="4">
+        <v>13037</v>
       </c>
       <c r="T9" s="4">
-        <v>18037</v>
-      </c>
-      <c r="U9" s="4">
-        <v>13037</v>
-      </c>
-      <c r="V9" s="4">
         <v>9691</v>
       </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
       <c r="W9" s="2">
         <v>0</v>
       </c>
       <c r="X9" s="2">
         <v>0</v>
       </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2006</v>
       </c>
@@ -1241,64 +1151,64 @@
         <v>14111</v>
       </c>
       <c r="C10" s="4">
-        <v>19840</v>
+        <v>12056</v>
       </c>
       <c r="D10" s="4">
-        <v>12056</v>
+        <v>13294</v>
       </c>
       <c r="E10" s="4">
-        <v>13294</v>
+        <v>14982</v>
       </c>
       <c r="F10" s="4">
-        <v>14982</v>
+        <v>18251</v>
       </c>
       <c r="G10" s="4">
-        <v>18251</v>
-      </c>
-      <c r="H10" s="4">
         <v>18935</v>
       </c>
-      <c r="I10" s="3">
+      <c r="H10" s="3">
         <v>20814</v>
       </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="2">
-        <v>0</v>
+      <c r="L10" s="4">
+        <v>11786</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="4">
-        <v>11786</v>
+        <v>14570</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
-      <c r="P10" s="4">
-        <v>14570</v>
+      <c r="P10" s="2">
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
       </c>
-      <c r="R10" s="2">
-        <v>0</v>
+      <c r="R10" s="4">
+        <v>16366</v>
       </c>
       <c r="S10" s="2">
         <v>0</v>
       </c>
       <c r="T10" s="4">
-        <v>16366</v>
+        <v>11083</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
-      <c r="V10" s="4">
-        <v>11083</v>
+      <c r="V10" s="2">
+        <v>0</v>
       </c>
       <c r="W10" s="2">
         <v>0</v>
@@ -1306,17 +1216,8 @@
       <c r="X10" s="2">
         <v>0</v>
       </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2007</v>
       </c>
@@ -1324,82 +1225,73 @@
         <v>16490</v>
       </c>
       <c r="C11" s="4">
-        <v>14305</v>
+        <v>14749</v>
       </c>
       <c r="D11" s="4">
-        <v>14749</v>
+        <v>15230</v>
       </c>
       <c r="E11" s="4">
-        <v>15230</v>
-      </c>
-      <c r="F11" s="4">
         <v>15154</v>
       </c>
-      <c r="G11" s="3">
+      <c r="F11" s="3">
         <v>20967</v>
       </c>
+      <c r="G11" s="4">
+        <v>15883</v>
+      </c>
       <c r="H11" s="4">
-        <v>15883</v>
-      </c>
-      <c r="I11" s="4">
         <v>24252</v>
       </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="2">
-        <v>0</v>
+      <c r="L11" s="4">
+        <v>16787</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="4">
-        <v>16787</v>
+        <v>16530</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
-      <c r="P11" s="4">
-        <v>16530</v>
+      <c r="P11" s="2">
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="2">
-        <v>0</v>
+      <c r="R11" s="4">
+        <v>15960</v>
       </c>
       <c r="S11" s="2">
         <v>0</v>
       </c>
       <c r="T11" s="4">
-        <v>15960</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="4">
         <v>11586</v>
       </c>
+      <c r="U11" s="4">
+        <v>20130</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
       <c r="W11" s="2">
         <v>0</v>
       </c>
-      <c r="X11" s="4">
-        <v>20130</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2">
+      <c r="X11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2008</v>
       </c>
@@ -1407,82 +1299,73 @@
         <v>17034</v>
       </c>
       <c r="C12" s="4">
-        <v>15114</v>
+        <v>13659</v>
       </c>
       <c r="D12" s="4">
-        <v>13659</v>
+        <v>14662</v>
       </c>
       <c r="E12" s="4">
-        <v>14662</v>
+        <v>13024</v>
       </c>
       <c r="F12" s="4">
-        <v>13024</v>
+        <v>19835</v>
       </c>
       <c r="G12" s="4">
-        <v>19835</v>
-      </c>
-      <c r="H12" s="4">
         <v>16939</v>
       </c>
-      <c r="I12" s="3">
+      <c r="H12" s="3">
         <v>26009</v>
       </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="2">
-        <v>0</v>
+      <c r="L12" s="4">
+        <v>17580</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="4">
-        <v>17580</v>
+        <v>15928</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
-      <c r="P12" s="4">
-        <v>15928</v>
+      <c r="P12" s="2">
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
       </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
+      <c r="R12" s="4">
+        <v>16179</v>
+      </c>
+      <c r="S12" s="4">
+        <v>13856</v>
       </c>
       <c r="T12" s="4">
-        <v>16179</v>
+        <v>10686</v>
       </c>
       <c r="U12" s="4">
-        <v>13856</v>
-      </c>
-      <c r="V12" s="4">
-        <v>10686</v>
+        <v>20120</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
       </c>
       <c r="W12" s="2">
         <v>0</v>
       </c>
-      <c r="X12" s="4">
-        <v>20120</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2">
+      <c r="X12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2009</v>
       </c>
@@ -1490,82 +1373,73 @@
         <v>15487</v>
       </c>
       <c r="C13" s="4">
-        <v>15725</v>
+        <v>13018</v>
       </c>
       <c r="D13" s="4">
-        <v>13018</v>
+        <v>14175</v>
       </c>
       <c r="E13" s="4">
-        <v>14175</v>
+        <v>12440</v>
       </c>
       <c r="F13" s="4">
-        <v>12440</v>
+        <v>15585</v>
       </c>
       <c r="G13" s="4">
-        <v>15585</v>
+        <v>17624</v>
       </c>
       <c r="H13" s="4">
-        <v>17624</v>
-      </c>
-      <c r="I13" s="4">
         <v>20827</v>
       </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="2">
-        <v>0</v>
+      <c r="L13" s="4">
+        <v>12427</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="4">
-        <v>12427</v>
+        <v>12744</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
-      <c r="P13" s="4">
-        <v>12744</v>
+      <c r="P13" s="2">
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
       </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
+      <c r="R13" s="4">
+        <v>17831</v>
+      </c>
+      <c r="S13" s="4">
+        <v>10329</v>
       </c>
       <c r="T13" s="4">
-        <v>17831</v>
+        <v>10053</v>
       </c>
       <c r="U13" s="4">
-        <v>10329</v>
-      </c>
-      <c r="V13" s="4">
-        <v>10053</v>
+        <v>20344</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
       </c>
       <c r="W13" s="2">
         <v>0</v>
       </c>
-      <c r="X13" s="4">
-        <v>20344</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3">
+      <c r="X13" s="3">
         <v>31203</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2010</v>
       </c>
@@ -1573,82 +1447,73 @@
         <v>15814</v>
       </c>
       <c r="C14" s="4">
-        <v>14576</v>
+        <v>14329</v>
       </c>
       <c r="D14" s="4">
-        <v>14329</v>
+        <v>14642</v>
       </c>
       <c r="E14" s="4">
-        <v>14642</v>
+        <v>10815</v>
       </c>
       <c r="F14" s="4">
-        <v>10815</v>
+        <v>14532</v>
       </c>
       <c r="G14" s="4">
-        <v>14532</v>
+        <v>17310</v>
       </c>
       <c r="H14" s="4">
-        <v>17310</v>
-      </c>
-      <c r="I14" s="4">
         <v>21437</v>
       </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="L14" s="2">
-        <v>0</v>
+      <c r="L14" s="4">
+        <v>12987</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="4">
-        <v>12987</v>
+        <v>18441</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="4">
-        <v>18441</v>
+        <v>19254</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
       </c>
       <c r="R14" s="4">
-        <v>19254</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
+        <v>17095</v>
+      </c>
+      <c r="S14" s="4">
+        <v>9659</v>
       </c>
       <c r="T14" s="4">
-        <v>17095</v>
+        <v>10287</v>
       </c>
       <c r="U14" s="4">
-        <v>9659</v>
-      </c>
-      <c r="V14" s="4">
-        <v>10287</v>
+        <v>20453</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
       </c>
       <c r="W14" s="2">
         <v>0</v>
       </c>
-      <c r="X14" s="4">
-        <v>20453</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="X14" s="3">
         <v>36173</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2011</v>
       </c>
@@ -1656,82 +1521,73 @@
         <v>14274</v>
       </c>
       <c r="C15" s="4">
-        <v>14830</v>
+        <v>14838</v>
       </c>
       <c r="D15" s="4">
-        <v>14838</v>
+        <v>12185</v>
       </c>
       <c r="E15" s="4">
-        <v>12185</v>
+        <v>12861</v>
       </c>
       <c r="F15" s="4">
-        <v>12861</v>
+        <v>15181</v>
       </c>
       <c r="G15" s="4">
-        <v>15181</v>
+        <v>17694</v>
       </c>
       <c r="H15" s="4">
-        <v>17694</v>
-      </c>
-      <c r="I15" s="4">
         <v>23335</v>
       </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="L15" s="2">
-        <v>0</v>
+      <c r="L15" s="4">
+        <v>13222</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <v>13222</v>
+        <v>19691</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="4">
-        <v>19691</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
+        <v>18259</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>18827</v>
       </c>
       <c r="R15" s="4">
-        <v>18259</v>
+        <v>17594</v>
       </c>
       <c r="S15" s="4">
-        <v>18827</v>
+        <v>11858</v>
       </c>
       <c r="T15" s="4">
-        <v>17594</v>
+        <v>17810</v>
       </c>
       <c r="U15" s="4">
-        <v>11858</v>
+        <v>20267</v>
       </c>
       <c r="V15" s="4">
-        <v>17810</v>
+        <v>20412</v>
       </c>
       <c r="W15" s="2">
         <v>0</v>
       </c>
-      <c r="X15" s="4">
-        <v>20267</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>20412</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
+      <c r="X15" s="3">
         <v>38496</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2012</v>
       </c>
@@ -1739,82 +1595,73 @@
         <v>16409</v>
       </c>
       <c r="C16" s="4">
-        <v>13056</v>
+        <v>15175</v>
       </c>
       <c r="D16" s="4">
-        <v>15175</v>
+        <v>14397</v>
       </c>
       <c r="E16" s="4">
-        <v>14397</v>
+        <v>14199</v>
       </c>
       <c r="F16" s="4">
-        <v>14199</v>
+        <v>13846</v>
       </c>
       <c r="G16" s="4">
-        <v>13846</v>
+        <v>21015</v>
       </c>
       <c r="H16" s="4">
-        <v>21015</v>
-      </c>
-      <c r="I16" s="4">
         <v>23136</v>
       </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
+      <c r="K16" s="4">
         <v>22772</v>
       </c>
+      <c r="L16" s="4">
+        <v>14001</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
       <c r="N16" s="4">
-        <v>14001</v>
+        <v>18281</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="4">
-        <v>18281</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
+        <v>18053</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>20438</v>
       </c>
       <c r="R16" s="4">
-        <v>18053</v>
+        <v>19087</v>
       </c>
       <c r="S16" s="4">
-        <v>20438</v>
+        <v>13293</v>
       </c>
       <c r="T16" s="4">
-        <v>19087</v>
+        <v>19404</v>
       </c>
       <c r="U16" s="4">
-        <v>13293</v>
+        <v>18155</v>
       </c>
       <c r="V16" s="4">
-        <v>19404</v>
+        <v>19475</v>
       </c>
       <c r="W16" s="2">
         <v>0</v>
       </c>
-      <c r="X16" s="4">
-        <v>18155</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>19475</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="3">
+      <c r="X16" s="3">
         <v>43144</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2013</v>
       </c>
@@ -1822,82 +1669,73 @@
         <v>15228</v>
       </c>
       <c r="C17" s="4">
-        <v>8366</v>
+        <v>15440</v>
       </c>
       <c r="D17" s="4">
-        <v>15440</v>
+        <v>16080</v>
       </c>
       <c r="E17" s="4">
-        <v>16080</v>
+        <v>15373</v>
       </c>
       <c r="F17" s="4">
-        <v>15373</v>
+        <v>13646</v>
       </c>
       <c r="G17" s="4">
-        <v>13646</v>
+        <v>19923</v>
       </c>
       <c r="H17" s="4">
-        <v>19923</v>
-      </c>
-      <c r="I17" s="4">
         <v>22152</v>
       </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
+      <c r="K17" s="4">
         <v>20602</v>
       </c>
+      <c r="L17" s="4">
+        <v>14844</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
       <c r="N17" s="4">
-        <v>14844</v>
+        <v>19461</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="4">
-        <v>19461</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
+        <v>17867</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>20674</v>
       </c>
       <c r="R17" s="4">
-        <v>17867</v>
+        <v>19218</v>
       </c>
       <c r="S17" s="4">
-        <v>20674</v>
+        <v>12765</v>
       </c>
       <c r="T17" s="4">
-        <v>19218</v>
+        <v>19708</v>
       </c>
       <c r="U17" s="4">
-        <v>12765</v>
+        <v>18131</v>
       </c>
       <c r="V17" s="4">
-        <v>19708</v>
+        <v>20038</v>
       </c>
       <c r="W17" s="2">
         <v>0</v>
       </c>
-      <c r="X17" s="4">
-        <v>18131</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>20038</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="X17" s="3">
         <v>44038</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2014</v>
       </c>
@@ -1905,410 +1743,365 @@
         <v>16076</v>
       </c>
       <c r="C18" s="4">
-        <v>7063</v>
+        <v>15082</v>
       </c>
       <c r="D18" s="4">
-        <v>15082</v>
+        <v>16881</v>
       </c>
       <c r="E18" s="4">
-        <v>16881</v>
+        <v>16816</v>
       </c>
       <c r="F18" s="4">
-        <v>16816</v>
+        <v>17030</v>
       </c>
       <c r="G18" s="4">
-        <v>17030</v>
+        <v>20117</v>
       </c>
       <c r="H18" s="4">
-        <v>20117</v>
-      </c>
-      <c r="I18" s="4">
         <v>21258</v>
       </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
+      <c r="K18" s="4">
         <v>17421</v>
       </c>
+      <c r="L18" s="4">
+        <v>16681</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
       <c r="N18" s="4">
-        <v>16681</v>
+        <v>19421</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="4">
-        <v>19421</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0</v>
+        <v>17631</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>20806</v>
       </c>
       <c r="R18" s="4">
-        <v>17631</v>
+        <v>20351</v>
       </c>
       <c r="S18" s="4">
-        <v>20806</v>
+        <v>14947</v>
       </c>
       <c r="T18" s="4">
-        <v>20351</v>
+        <v>20003</v>
       </c>
       <c r="U18" s="4">
-        <v>14947</v>
+        <v>22086</v>
       </c>
       <c r="V18" s="4">
-        <v>20003</v>
+        <v>20408</v>
       </c>
       <c r="W18" s="2">
         <v>0</v>
       </c>
-      <c r="X18" s="4">
-        <v>22086</v>
-      </c>
-      <c r="Y18" s="4">
-        <v>20408</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="X18" s="3">
         <v>43734</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2015</v>
       </c>
       <c r="B19" s="4">
         <v>16003</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
+      <c r="C19" s="4">
+        <v>15657</v>
       </c>
       <c r="D19" s="4">
-        <v>15657</v>
+        <v>16985</v>
       </c>
       <c r="E19" s="4">
-        <v>16985</v>
+        <v>16015</v>
       </c>
       <c r="F19" s="4">
-        <v>16015</v>
+        <v>16244</v>
       </c>
       <c r="G19" s="4">
-        <v>16244</v>
+        <v>20658</v>
       </c>
       <c r="H19" s="4">
-        <v>20658</v>
-      </c>
-      <c r="I19" s="4">
         <v>23392</v>
       </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
+      <c r="K19" s="4">
+        <v>17750</v>
+      </c>
+      <c r="L19" s="4">
+        <v>19627</v>
       </c>
       <c r="M19" s="4">
-        <v>17750</v>
+        <v>29016</v>
       </c>
       <c r="N19" s="4">
-        <v>19627</v>
+        <v>19657</v>
       </c>
       <c r="O19" s="4">
-        <v>29016</v>
+        <v>32847</v>
       </c>
       <c r="P19" s="4">
-        <v>19657</v>
+        <v>17451</v>
       </c>
       <c r="Q19" s="4">
-        <v>32847</v>
+        <v>21144</v>
       </c>
       <c r="R19" s="4">
-        <v>17451</v>
+        <v>20160</v>
       </c>
       <c r="S19" s="4">
-        <v>21144</v>
+        <v>20979</v>
       </c>
       <c r="T19" s="4">
-        <v>20160</v>
+        <v>19687</v>
       </c>
       <c r="U19" s="4">
-        <v>20979</v>
+        <v>23451</v>
       </c>
       <c r="V19" s="4">
-        <v>19687</v>
+        <v>20507</v>
       </c>
       <c r="W19" s="2">
         <v>0</v>
       </c>
-      <c r="X19" s="4">
-        <v>23451</v>
-      </c>
-      <c r="Y19" s="4">
-        <v>20507</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="3">
+      <c r="X19" s="3">
         <v>44247</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2016</v>
       </c>
       <c r="B20" s="4">
         <v>15602</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
+      <c r="C20" s="4">
+        <v>16278</v>
       </c>
       <c r="D20" s="4">
-        <v>16278</v>
+        <v>17125</v>
       </c>
       <c r="E20" s="4">
-        <v>17125</v>
+        <v>14094</v>
       </c>
       <c r="F20" s="4">
-        <v>14094</v>
+        <v>17081</v>
       </c>
       <c r="G20" s="4">
-        <v>17081</v>
+        <v>19021</v>
       </c>
       <c r="H20" s="4">
-        <v>19021</v>
-      </c>
-      <c r="I20" s="4">
         <v>25138</v>
       </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
+      <c r="K20" s="4">
+        <v>20669</v>
+      </c>
+      <c r="L20" s="4">
+        <v>20185</v>
       </c>
       <c r="M20" s="4">
-        <v>20669</v>
+        <v>27196</v>
       </c>
       <c r="N20" s="4">
-        <v>20185</v>
+        <v>20620</v>
       </c>
       <c r="O20" s="4">
-        <v>27196</v>
+        <v>31324</v>
       </c>
       <c r="P20" s="4">
-        <v>20620</v>
+        <v>17519</v>
       </c>
       <c r="Q20" s="4">
-        <v>31324</v>
+        <v>21144</v>
       </c>
       <c r="R20" s="4">
-        <v>17519</v>
+        <v>19759</v>
       </c>
       <c r="S20" s="4">
-        <v>21144</v>
+        <v>19930</v>
       </c>
       <c r="T20" s="4">
-        <v>19759</v>
+        <v>19597</v>
       </c>
       <c r="U20" s="4">
-        <v>19930</v>
+        <v>26538</v>
       </c>
       <c r="V20" s="4">
-        <v>19597</v>
+        <v>22330</v>
       </c>
       <c r="W20" s="2">
         <v>0</v>
       </c>
-      <c r="X20" s="4">
-        <v>26538</v>
-      </c>
-      <c r="Y20" s="4">
-        <v>22330</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="X20" s="3">
         <v>42636</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2017</v>
       </c>
       <c r="B21" s="4">
         <v>17383</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
+      <c r="C21" s="4">
+        <v>15322</v>
       </c>
       <c r="D21" s="4">
-        <v>15322</v>
+        <v>15439</v>
       </c>
       <c r="E21" s="4">
-        <v>15439</v>
+        <v>15122</v>
       </c>
       <c r="F21" s="4">
-        <v>15122</v>
+        <v>17904</v>
       </c>
       <c r="G21" s="4">
-        <v>17904</v>
+        <v>17500</v>
       </c>
       <c r="H21" s="4">
-        <v>17500</v>
-      </c>
-      <c r="I21" s="4">
         <v>22246</v>
       </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>20538</v>
+      </c>
+      <c r="K21" s="4">
+        <v>20046</v>
       </c>
       <c r="L21" s="4">
-        <v>20538</v>
+        <v>19367</v>
       </c>
       <c r="M21" s="4">
-        <v>20046</v>
+        <v>22177</v>
       </c>
       <c r="N21" s="4">
-        <v>19367</v>
+        <v>21175</v>
       </c>
       <c r="O21" s="4">
-        <v>22177</v>
+        <v>25028</v>
       </c>
       <c r="P21" s="4">
-        <v>21175</v>
+        <v>16812</v>
       </c>
       <c r="Q21" s="4">
-        <v>25028</v>
+        <v>21144</v>
       </c>
       <c r="R21" s="4">
-        <v>16812</v>
+        <v>18781</v>
       </c>
       <c r="S21" s="4">
-        <v>21144</v>
+        <v>19875</v>
       </c>
       <c r="T21" s="4">
-        <v>18781</v>
+        <v>19537</v>
       </c>
       <c r="U21" s="4">
-        <v>19875</v>
+        <v>27647</v>
       </c>
       <c r="V21" s="4">
-        <v>19537</v>
-      </c>
-      <c r="W21" s="2">
-        <v>0</v>
+        <v>21416</v>
+      </c>
+      <c r="W21" s="3">
+        <v>48200</v>
       </c>
       <c r="X21" s="4">
-        <v>27647</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>21416</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>48200</v>
-      </c>
-      <c r="AA21" s="4">
         <v>43666</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2018</v>
       </c>
       <c r="B22" s="4">
         <v>14806</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
+      <c r="C22" s="4">
+        <v>15333</v>
       </c>
       <c r="D22" s="4">
-        <v>15333</v>
+        <v>12447</v>
       </c>
       <c r="E22" s="4">
-        <v>12447</v>
+        <v>15512</v>
       </c>
       <c r="F22" s="4">
-        <v>15512</v>
+        <v>17635</v>
       </c>
       <c r="G22" s="4">
-        <v>17635</v>
+        <v>16909</v>
       </c>
       <c r="H22" s="4">
-        <v>16909</v>
+        <v>24444</v>
       </c>
       <c r="I22" s="4">
-        <v>24444</v>
+        <v>22042</v>
       </c>
       <c r="J22" s="4">
-        <v>22042</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
+        <v>23902</v>
+      </c>
+      <c r="K22" s="4">
+        <v>18569</v>
       </c>
       <c r="L22" s="4">
-        <v>23902</v>
+        <v>18347</v>
       </c>
       <c r="M22" s="4">
-        <v>18569</v>
+        <v>23211</v>
       </c>
       <c r="N22" s="4">
-        <v>18347</v>
+        <v>18644</v>
       </c>
       <c r="O22" s="4">
-        <v>23211</v>
+        <v>23866</v>
       </c>
       <c r="P22" s="4">
-        <v>18644</v>
+        <v>16518</v>
       </c>
       <c r="Q22" s="4">
-        <v>23866</v>
+        <v>21144</v>
       </c>
       <c r="R22" s="4">
-        <v>16518</v>
+        <v>18605</v>
       </c>
       <c r="S22" s="4">
-        <v>21144</v>
+        <v>19032</v>
       </c>
       <c r="T22" s="4">
-        <v>18605</v>
+        <v>19950</v>
       </c>
       <c r="U22" s="4">
-        <v>19032</v>
+        <v>26628</v>
       </c>
       <c r="V22" s="4">
-        <v>19950</v>
-      </c>
-      <c r="W22" s="2">
-        <v>0</v>
+        <v>21946</v>
+      </c>
+      <c r="W22" s="3">
+        <v>53002</v>
       </c>
       <c r="X22" s="4">
-        <v>26628</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>21946</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>53002</v>
-      </c>
-      <c r="AA22" s="4">
         <v>40641</v>
       </c>
     </row>
